--- a/gantt chart final.xlsx
+++ b/gantt chart final.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project III\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AR-Store-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AEA25-FE3C-4256-8FBA-E8DD4C8F1C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD71BA-F330-4236-A1CB-DFD752DE5BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8A7D093-93BD-4D48-BDAA-3651FADC91E3}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{E8A7D093-93BD-4D48-BDAA-3651FADC91E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$B$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1:$C$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1:$D$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$1:$E$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$1:$F$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$1:$G$14</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Gantt Chart</t>
   </si>
@@ -50,28 +42,7 @@
     <t>Requirement Gathering &amp; Setup</t>
   </si>
   <si>
-    <t>Data Collection</t>
-  </si>
-  <si>
-    <t>Data Processing &amp; Cleaning</t>
-  </si>
-  <si>
-    <t>Feature Extraction &amp; Selection</t>
-  </si>
-  <si>
-    <t>Algorithm Implementation</t>
-  </si>
-  <si>
-    <t>Model Training Evaluation</t>
-  </si>
-  <si>
     <t>Testing &amp; Debugging</t>
-  </si>
-  <si>
-    <t>Performance Metrices Calculation</t>
-  </si>
-  <si>
-    <t>Documentation</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -80,7 +51,31 @@
     <t>Days Needed</t>
   </si>
   <si>
-    <t>Extension UI Development</t>
+    <t>AR Feature Development</t>
+  </si>
+  <si>
+    <t>Frontend Development</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>AR Feature Testing &amp; Debugging</t>
+  </si>
+  <si>
+    <t>Frontend Enhancement</t>
+  </si>
+  <si>
+    <t>Documentation and Writing</t>
+  </si>
+  <si>
+    <t>Final Reviews and Submission</t>
+  </si>
+  <si>
+    <t>Overall Enhancement</t>
+  </si>
+  <si>
+    <t>AR Literature Review</t>
   </si>
 </sst>
 </file>
@@ -138,13 +133,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,9 +270,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Project Idea Discussion</c:v>
                 </c:pt>
@@ -288,41 +283,44 @@
                   <c:v>Requirement Gathering &amp; Setup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Data Collection</c:v>
+                  <c:v>AR Literature Review</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Data Processing &amp; Cleaning</c:v>
+                  <c:v>AR Feature Development</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Extraction &amp; Selection</c:v>
+                  <c:v>Backend Development</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Algorithm Implementation</c:v>
+                  <c:v>Frontend Development</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Model Training Evaluation</c:v>
+                  <c:v>AR Feature Testing &amp; Debugging</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Frontend Enhancement</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Testing &amp; Debugging</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Performance Metrices Calculation</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>Extension UI Development</c:v>
+                  <c:v>Documentation and Writing</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Documentation</c:v>
+                  <c:v>Final Reviews and Submission</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Overall Enhancement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45249</c:v>
                 </c:pt>
@@ -333,30 +331,33 @@
                   <c:v>45267</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45283</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45311</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45342</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45371</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45392</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45422</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45444</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45451</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45466</c:v>
                 </c:pt>
               </c:numCache>
@@ -384,7 +385,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -398,7 +401,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -417,7 +422,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -436,7 +443,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -450,31 +459,14 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-128E-4D4D-8DC0-372ABD1D7F96}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -493,7 +485,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -512,7 +506,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -531,7 +527,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -550,7 +548,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -569,7 +569,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -588,7 +590,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -607,7 +611,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -620,11 +626,27 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Project Idea Discussion</c:v>
                 </c:pt>
@@ -635,41 +657,44 @@
                   <c:v>Requirement Gathering &amp; Setup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Data Collection</c:v>
+                  <c:v>AR Literature Review</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Data Processing &amp; Cleaning</c:v>
+                  <c:v>AR Feature Development</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Feature Extraction &amp; Selection</c:v>
+                  <c:v>Backend Development</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Algorithm Implementation</c:v>
+                  <c:v>Frontend Development</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Model Training Evaluation</c:v>
+                  <c:v>AR Feature Testing &amp; Debugging</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Frontend Enhancement</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Testing &amp; Debugging</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Performance Metrices Calculation</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>Extension UI Development</c:v>
+                  <c:v>Documentation and Writing</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Documentation</c:v>
+                  <c:v>Final Reviews and Submission</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Overall Enhancement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$14</c:f>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -680,30 +705,33 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -814,7 +842,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1439,16 +1467,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1773,43 +1801,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2896648B-D00C-446D-8FA9-BDAA5A069FBC}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1842,113 +1870,124 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45270</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45283</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45311</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45342</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45371</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45392</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>45283</v>
-      </c>
-      <c r="C6" s="1">
-        <v>21</v>
+      <c r="B12" s="4">
+        <v>45422</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45311</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45444</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45451</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45466</v>
+      </c>
+      <c r="C15" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>45342</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45371</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45392</v>
-      </c>
-      <c r="C10" s="1">
-        <v>30</v>
-      </c>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45422</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45444</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45451</v>
-      </c>
-      <c r="C13" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45466</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
